--- a/biology/Médecine/Lucien_Israël_(cancérologue)/Lucien_Israël_(cancérologue).xlsx
+++ b/biology/Médecine/Lucien_Israël_(cancérologue)/Lucien_Israël_(cancérologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucien_Isra%C3%ABl_(canc%C3%A9rologue)</t>
+          <t>Lucien_Israël_(cancérologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lucien Israël, né le 14 avril 1926 dans le 12e arrondissement de Paris et mort le 9 juin 2017 à La Celle-Saint-Cloud[1], est un médecin cancérologue universitaire français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucien Israël, né le 14 avril 1926 dans le 12e arrondissement de Paris et mort le 9 juin 2017 à La Celle-Saint-Cloud, est un médecin cancérologue universitaire français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lucien_Isra%C3%ABl_(canc%C3%A9rologue)</t>
+          <t>Lucien_Israël_(cancérologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait une carrière hospitalière et universitaire[2] dans laquelle il lutta contre le cancer et soigna les malades du cancer pendant plusieurs décennies.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait une carrière hospitalière et universitaire dans laquelle il lutta contre le cancer et soigna les malades du cancer pendant plusieurs décennies.
 À l’hôpital Laënnec, il teste en secret puis impose la pratique de la polythérapie dans le traitement des cancers. Il exerça notamment à l’hôpital Avicenne.
 Il est élu à l'Académie des sciences morales et politiques le 8 janvier 1996, dans la section Morale et sociologie, au fauteuil de Jérôme Lejeune. Il a été président de l'Académie en 2007.
 Il est également un des vice-président de l'Union nationale inter-universitaire (UNI).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lucien_Isra%C3%ABl_(canc%C3%A9rologue)</t>
+          <t>Lucien_Israël_(cancérologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Prises de position</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur Lucien Israël combattit l'euthanasie et la méthode globale à l'école qu'il jugeait néfaste pour le développement intellectuel de l'enfant[réf. souhaitée].
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lucien_Isra%C3%ABl_(canc%C3%A9rologue)</t>
+          <t>Lucien_Israël_(cancérologue)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur
  Commandeur de l'ordre national du Mérite</t>
